--- a/backend/WorldCupWinnerBets.xlsx
+++ b/backend/WorldCupWinnerBets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A624EC-1B9C-45E3-86E3-CBFE5E1E0740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4334B74C-527A-4E9B-ACF7-5DF88D4514CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="4935" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>England</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
 </sst>
 </file>
@@ -396,12 +402,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,72 +418,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/WorldCupWinnerBets.xlsx
+++ b/backend/WorldCupWinnerBets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4334B74C-527A-4E9B-ACF7-5DF88D4514CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3F1119-D828-4E55-8801-AA285FDE1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7650" yWindow="4935" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +460,9 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>

--- a/backend/WorldCupWinnerBets.xlsx
+++ b/backend/WorldCupWinnerBets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3F1119-D828-4E55-8801-AA285FDE1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384EA6FD-BDA9-419A-AF17-EA7C69F259C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="4935" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -402,12 +402,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -456,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -497,15 +497,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -513,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -521,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -529,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>

--- a/backend/WorldCupWinnerBets.xlsx
+++ b/backend/WorldCupWinnerBets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384EA6FD-BDA9-419A-AF17-EA7C69F259C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281FDFB1-154E-4257-BBCA-B807050DADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brazil?</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,6 +450,9 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -512,6 +521,9 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
       <c r="C11">
         <v>1</v>
       </c>
@@ -520,6 +532,9 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12">
         <v>1</v>
       </c>
@@ -528,6 +543,9 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
@@ -535,6 +553,9 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>

--- a/backend/WorldCupWinnerBets.xlsx
+++ b/backend/WorldCupWinnerBets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281FDFB1-154E-4257-BBCA-B807050DADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EEA8E6-2FF0-4F18-B9C9-21FF6DD61694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -408,12 +408,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -457,15 +457,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -476,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -487,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -498,15 +501,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -517,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -528,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -539,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -550,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>

--- a/backend/WorldCupWinnerBets.xlsx
+++ b/backend/WorldCupWinnerBets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EEA8E6-2FF0-4F18-B9C9-21FF6DD61694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B3512-CFB4-4106-9045-3FC4CA9254F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -408,12 +408,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>

--- a/backend/WorldCupWinnerBets.xlsx
+++ b/backend/WorldCupWinnerBets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B3512-CFB4-4106-9045-3FC4CA9254F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB116C3-2CFC-40B5-9C37-E9B8A552F18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Brazil</t>
-  </si>
-  <si>
-    <t>Brazil?</t>
   </si>
   <si>
     <t>France</t>
@@ -408,12 +405,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -446,18 +443,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -468,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -479,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -490,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -501,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -512,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -523,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -534,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -545,18 +542,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>

--- a/backend/WorldCupWinnerBets.xlsx
+++ b/backend/WorldCupWinnerBets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB116C3-2CFC-40B5-9C37-E9B8A552F18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E7183E-F88B-44E6-81F0-9E118055AE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -405,12 +405,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -429,10 +429,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -440,10 +440,10 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -451,10 +451,10 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -462,10 +462,10 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -473,10 +473,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -484,10 +484,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -506,10 +506,10 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -517,10 +517,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -539,10 +539,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -550,10 +550,10 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
